--- a/biology/Biochimie/Fucoxanthine/Fucoxanthine.xlsx
+++ b/biology/Biochimie/Fucoxanthine/Fucoxanthine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fucoxanthine est un pigment xanthophylle de la famille des caroténoïdes. Il donne leur couleur brune à de nombreuses algues. Elle est notamment contenue dans le wakame, algue utilisée dans la cuisine japonaise. La caractéristique principale de ces pigments est leur faculté à absorber les longueurs d'onde sur l'intervalle 500-560 nm, couvrant la plage de couleur bleu-vert sur le spectre de la lumière visible.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fucoxanthine compose l'antenne collectrice de ces algues et joue un rôle essentiel dans le phénomène de conversion de l'énergie solaire en énergie chimique.
 </t>
@@ -543,12 +557,14 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fucoxanthine est à l'étude à des fins médicales à plusieurs niveaux :
-Elle serait un atout majeur dans la lutte contre l'obésité au travers de ses aptitudes de "brûle-graisse" qui ont pu être mises en évidence sur des expérimentations sur des rats[2].
-Elle aurait tendance à réduire le taux de glucose du sang, et aurait un impact sur le taux d'insuline[2].
-Elle serait, de plus, très prometteuse dans le domaine de la lutte contre le cancer du côlon[3].
+Elle serait un atout majeur dans la lutte contre l'obésité au travers de ses aptitudes de "brûle-graisse" qui ont pu être mises en évidence sur des expérimentations sur des rats.
+Elle aurait tendance à réduire le taux de glucose du sang, et aurait un impact sur le taux d'insuline.
+Elle serait, de plus, très prometteuse dans le domaine de la lutte contre le cancer du côlon.
 Ces multi-fonctionnalités sont très prometteuses et ouvrent la voie à de larges applications de ce pigment en matière de médecine préventive.
 </t>
         </is>
